--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N2">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O2">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P2">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q2">
-        <v>446.9316227899111</v>
+        <v>0.5928254327683333</v>
       </c>
       <c r="R2">
-        <v>446.9316227899111</v>
+        <v>5.335428894915</v>
       </c>
       <c r="S2">
-        <v>0.009728502961560127</v>
+        <v>1.067616142182986E-05</v>
       </c>
       <c r="T2">
-        <v>0.009728502961560127</v>
+        <v>1.067616142182985E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N3">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P3">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q3">
-        <v>431.7011946489238</v>
+        <v>615.1105926916755</v>
       </c>
       <c r="R3">
-        <v>431.7011946489238</v>
+        <v>5535.99533422508</v>
       </c>
       <c r="S3">
-        <v>0.009396977381986015</v>
+        <v>0.01107749367159835</v>
       </c>
       <c r="T3">
-        <v>0.009396977381986015</v>
+        <v>0.01107749367159835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.371518409563</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>130.371518409563</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.8169486296333808</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N4">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P4">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q4">
-        <v>19090.77158949632</v>
+        <v>643.5100017356705</v>
       </c>
       <c r="R4">
-        <v>19090.77158949632</v>
+        <v>5791.590015621034</v>
       </c>
       <c r="S4">
-        <v>0.415554904769373</v>
+        <v>0.01158893710583567</v>
       </c>
       <c r="T4">
-        <v>0.415554904769373</v>
+        <v>0.01158893710583567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H5">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I5">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J5">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>141.443477077448</v>
+        <v>0.142723</v>
       </c>
       <c r="N5">
-        <v>141.443477077448</v>
+        <v>0.428169</v>
       </c>
       <c r="O5">
-        <v>0.4913328822696476</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P5">
-        <v>0.4913328822696476</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q5">
-        <v>18440.20087571512</v>
+        <v>20.06529535998867</v>
       </c>
       <c r="R5">
-        <v>18440.20087571512</v>
+        <v>180.587658239898</v>
       </c>
       <c r="S5">
-        <v>0.4013937248640078</v>
+        <v>0.0003613548279121258</v>
       </c>
       <c r="T5">
-        <v>0.4013937248640078</v>
+        <v>0.0003613548279121258</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H6">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I6">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J6">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.433606223121</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N6">
-        <v>146.433606223121</v>
+        <v>444.264488</v>
       </c>
       <c r="O6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P6">
-        <v>0.5086671177303524</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q6">
-        <v>985.0509744335807</v>
+        <v>20819.57864692245</v>
       </c>
       <c r="R6">
-        <v>985.0509744335807</v>
+        <v>187376.2078223021</v>
       </c>
       <c r="S6">
-        <v>0.02144191825640739</v>
+        <v>0.3749386751696379</v>
       </c>
       <c r="T6">
-        <v>0.02144191825640739</v>
+        <v>0.3749386751696379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.7269460873118</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>6.7269460873118</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.04215314398949194</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>141.443477077448</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N7">
-        <v>141.443477077448</v>
+        <v>464.776001</v>
       </c>
       <c r="O7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P7">
-        <v>0.4913328822696476</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q7">
-        <v>951.4826447019151</v>
+        <v>21780.81023217325</v>
       </c>
       <c r="R7">
-        <v>951.4826447019151</v>
+        <v>196027.2920895592</v>
       </c>
       <c r="S7">
-        <v>0.02071122573308454</v>
+        <v>0.3922494432316235</v>
       </c>
       <c r="T7">
-        <v>0.02071122573308454</v>
+        <v>0.3922494432316235</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H8">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I8">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J8">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>146.433606223121</v>
+        <v>0.142723</v>
       </c>
       <c r="N8">
-        <v>146.433606223121</v>
+        <v>0.428169</v>
       </c>
       <c r="O8">
-        <v>0.5086671177303524</v>
+        <v>0.000470790275435748</v>
       </c>
       <c r="P8">
-        <v>0.5086671177303524</v>
+        <v>0.0004707902754357479</v>
       </c>
       <c r="Q8">
-        <v>2794.289582847599</v>
+        <v>1.016612123053334</v>
       </c>
       <c r="R8">
-        <v>2794.289582847599</v>
+        <v>9.149509107480002</v>
       </c>
       <c r="S8">
-        <v>0.060824191209598</v>
+        <v>1.830811319687077E-05</v>
       </c>
       <c r="T8">
-        <v>0.060824191209598</v>
+        <v>1.830811319687076E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.0822971237213</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H9">
-        <v>19.0822971237213</v>
+        <v>21.36892</v>
       </c>
       <c r="I9">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J9">
-        <v>0.1195756302884144</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>141.443477077448</v>
+        <v>148.0881626666667</v>
       </c>
       <c r="N9">
-        <v>141.443477077448</v>
+        <v>444.264488</v>
       </c>
       <c r="O9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272602</v>
       </c>
       <c r="P9">
-        <v>0.4913328822696476</v>
+        <v>0.4884879584272601</v>
       </c>
       <c r="Q9">
-        <v>2699.066455804125</v>
+        <v>1054.828033656996</v>
       </c>
       <c r="R9">
-        <v>2699.066455804125</v>
+        <v>9493.452302912961</v>
       </c>
       <c r="S9">
-        <v>0.05875143907881643</v>
+        <v>0.01899634148117644</v>
       </c>
       <c r="T9">
-        <v>0.05875143907881643</v>
+        <v>0.01899634148117644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.350623411838624</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H10">
-        <v>0.350623411838624</v>
+        <v>21.36892</v>
       </c>
       <c r="I10">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J10">
-        <v>0.002197115745166725</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>146.433606223121</v>
+        <v>154.9253336666667</v>
       </c>
       <c r="N10">
-        <v>146.433606223121</v>
+        <v>464.776001</v>
       </c>
       <c r="O10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973043</v>
       </c>
       <c r="P10">
-        <v>0.5086671177303524</v>
+        <v>0.5110412512973042</v>
       </c>
       <c r="Q10">
-        <v>51.34305062178424</v>
+        <v>1103.529020365436</v>
       </c>
       <c r="R10">
-        <v>51.34305062178424</v>
+        <v>9931.76118328892</v>
       </c>
       <c r="S10">
-        <v>0.001117600533413933</v>
+        <v>0.01987339493867356</v>
       </c>
       <c r="T10">
-        <v>0.001117600533413933</v>
+        <v>0.01987339493867355</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H11">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I11">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J11">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.142723</v>
+      </c>
+      <c r="N11">
+        <v>0.428169</v>
+      </c>
+      <c r="O11">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P11">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q11">
+        <v>4.412055376619334</v>
+      </c>
+      <c r="R11">
+        <v>39.70849838957401</v>
+      </c>
+      <c r="S11">
+        <v>7.945646863171565E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.945646863171563E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="H11">
-        <v>0.350623411838624</v>
-      </c>
-      <c r="I11">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="J11">
-        <v>0.002197115745166725</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="N11">
-        <v>141.443477077448</v>
-      </c>
-      <c r="O11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="P11">
-        <v>0.4913328822696476</v>
-      </c>
-      <c r="Q11">
-        <v>49.59339451521302</v>
-      </c>
-      <c r="R11">
-        <v>49.59339451521302</v>
-      </c>
-      <c r="S11">
-        <v>0.001079515211752791</v>
-      </c>
-      <c r="T11">
-        <v>0.001079515211752791</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H12">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I12">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J12">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N12">
+        <v>444.264488</v>
+      </c>
+      <c r="O12">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P12">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q12">
+        <v>4577.910878464895</v>
+      </c>
+      <c r="R12">
+        <v>41201.19790618405</v>
+      </c>
+      <c r="S12">
+        <v>0.08244335146859584</v>
+      </c>
+      <c r="T12">
+        <v>0.08244335146859583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.91341533333334</v>
+      </c>
+      <c r="H13">
+        <v>92.74024600000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="J13">
+        <v>0.1687725358349285</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N13">
+        <v>464.776001</v>
+      </c>
+      <c r="O13">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P13">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q13">
+        <v>4789.271185292917</v>
+      </c>
+      <c r="R13">
+        <v>43103.44066763625</v>
+      </c>
+      <c r="S13">
+        <v>0.086249727897701</v>
+      </c>
+      <c r="T13">
+        <v>0.08624972789770098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.161002</v>
+      </c>
+      <c r="I14">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J14">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.142723</v>
+      </c>
+      <c r="N14">
+        <v>0.428169</v>
+      </c>
+      <c r="O14">
+        <v>0.000470790275435748</v>
+      </c>
+      <c r="P14">
+        <v>0.0004707902754357479</v>
+      </c>
+      <c r="Q14">
+        <v>0.05523389614866668</v>
+      </c>
+      <c r="R14">
+        <v>0.4971050653380001</v>
+      </c>
+      <c r="S14">
+        <v>9.947042732058219E-07</v>
+      </c>
+      <c r="T14">
+        <v>9.947042732058215E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.161002</v>
+      </c>
+      <c r="I15">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J15">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>148.0881626666667</v>
+      </c>
+      <c r="N15">
+        <v>444.264488</v>
+      </c>
+      <c r="O15">
+        <v>0.4884879584272602</v>
+      </c>
+      <c r="P15">
+        <v>0.4884879584272601</v>
+      </c>
+      <c r="Q15">
+        <v>57.31021767744179</v>
+      </c>
+      <c r="R15">
+        <v>515.791959096976</v>
+      </c>
+      <c r="S15">
+        <v>0.001032096636251565</v>
+      </c>
+      <c r="T15">
+        <v>0.001032096636251565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3870006666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.161002</v>
+      </c>
+      <c r="I16">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="J16">
+        <v>0.002112839463995207</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>154.9253336666667</v>
+      </c>
+      <c r="N16">
+        <v>464.776001</v>
+      </c>
+      <c r="O16">
+        <v>0.5110412512973043</v>
+      </c>
+      <c r="P16">
+        <v>0.5110412512973042</v>
+      </c>
+      <c r="Q16">
+        <v>59.95620741255578</v>
+      </c>
+      <c r="R16">
+        <v>539.605866713002</v>
+      </c>
+      <c r="S16">
+        <v>0.001079748123470436</v>
+      </c>
+      <c r="T16">
+        <v>0.001079748123470436</v>
       </c>
     </row>
   </sheetData>
